--- a/llm_invoice_reconciliation.xlsx
+++ b/llm_invoice_reconciliation.xlsx
@@ -10,6 +10,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="matched" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_invoices" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_payments" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="reimbursements" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_invoices" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_statements" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,30 +458,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28518.85</v>
+        <v>27033.29</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
+          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>28518.85</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-06-22</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>27033.29</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>28518.85</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
         </is>
       </c>
     </row>
@@ -493,7 +526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,32 +537,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
+          <t>info</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-20</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>28518.85</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Invoice INV-20250620-D0E0F066</t>
+          <t>No data</t>
         </is>
       </c>
     </row>
@@ -544,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,12 +575,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>balance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
@@ -575,12 +600,20 @@
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Monthly Office Rent Brightspace Realty</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>4000</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Monthly Office Rent Brightspace Realty</t>
+      <c r="D2" t="n">
+        <v>176552.14</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>credit</t>
         </is>
       </c>
     </row>
@@ -590,12 +623,20 @@
           <t>2025-06-24</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>189.99</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
+      <c r="D3" t="n">
+        <v>176362.15</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>credit</t>
         </is>
       </c>
     </row>
@@ -605,12 +646,20 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Internet Bill FastNet Communications</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Internet Bill FastNet Communications</t>
+      <c r="D4" t="n">
+        <v>176282.16</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>credit</t>
         </is>
       </c>
     </row>
@@ -620,12 +669,20 @@
           <t>2025-06-26</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Employee Salary - June Payroll Transfer</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>55000</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Employee Salary - June Payroll Transfer</t>
+      <c r="D5" t="n">
+        <v>121282.16</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>credit</t>
         </is>
       </c>
     </row>
@@ -635,12 +692,20 @@
           <t>2025-06-27</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Utility Payment - Electricity City Utilities</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>750</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Utility Payment - Electricity City Utilities</t>
+      <c r="D6" t="n">
+        <v>120532.16</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>credit</t>
         </is>
       </c>
     </row>
@@ -650,12 +715,20 @@
           <t>2025-06-28</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>18750</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
+      <c r="D7" t="n">
+        <v>139282.16</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>credit</t>
         </is>
       </c>
     </row>
@@ -665,12 +738,119 @@
           <t>2025-06-29</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amazon Business Purchase Amazon.com</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>320.5</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Amazon Business Purchase Amazon.com</t>
+      <c r="D8" t="n">
+        <v>138961.66</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>No data</t>
         </is>
       </c>
     </row>

--- a/llm_invoice_reconciliation.xlsx
+++ b/llm_invoice_reconciliation.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,77 +441,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
+          <t>info</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>27033.29</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-06-21</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>28518.85</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-06-22</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>27033.29</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-06-21</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>28518.85</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
+          <t>No data</t>
         </is>
       </c>
     </row>
@@ -526,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,15 +474,48 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No data</t>
-        </is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250623-59B50E89</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250623-9406A583</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27033.29</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,19 +567,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monthly Office Rent Brightspace Realty</t>
+          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>28518.85</v>
       </c>
       <c r="D2" t="n">
-        <v>176552.14</v>
+        <v>153518.85</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -620,19 +590,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
+          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>189.99</v>
+        <v>27033.29</v>
       </c>
       <c r="D3" t="n">
-        <v>176362.15</v>
+        <v>180552.14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -643,19 +613,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Internet Bill FastNet Communications</t>
+          <t>Monthly Office Rent Brightspace Realty</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79.98999999999999</v>
+        <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>176282.16</v>
+        <v>176552.14</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -666,19 +636,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Employee Salary - June Payroll Transfer</t>
+          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55000</v>
+        <v>189.99</v>
       </c>
       <c r="D5" t="n">
-        <v>121282.16</v>
+        <v>176362.15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -689,19 +659,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Utility Payment - Electricity City Utilities</t>
+          <t>Internet Bill FastNet Communications</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>750</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>120532.16</v>
+        <v>176282.16</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -712,19 +682,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
+          <t>Employee Salary - June Payroll Transfer</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18750</v>
+        <v>55000</v>
       </c>
       <c r="D7" t="n">
-        <v>139282.16</v>
+        <v>121282.16</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -735,21 +705,67 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Utility Payment - Electricity City Utilities</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>750</v>
+      </c>
+      <c r="D8" t="n">
+        <v>120532.16</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18750</v>
+      </c>
+      <c r="D9" t="n">
+        <v>139282.16</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>2025-06-29</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Amazon Business Purchase Amazon.com</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C10" t="n">
         <v>320.5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>138961.66</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>credit</t>
         </is>

--- a/llm_invoice_reconciliation.xlsx
+++ b/llm_invoice_reconciliation.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,48 +474,15 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
+          <t>info</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Invoice INV-20250623-59B50E89</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28518.85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-06-23</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Invoice INV-20250623-9406A583</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27033.29</v>
+          <t>No data</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -529,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,234 +507,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>balance</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
+          <t>info</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28518.85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>153518.85</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-06-22</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27033.29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>180552.14</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-06-23</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Monthly Office Rent Brightspace Realty</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>176552.14</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>189.99</v>
-      </c>
-      <c r="D5" t="n">
-        <v>176362.15</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Internet Bill FastNet Communications</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>79.98999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>176282.16</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Employee Salary - June Payroll Transfer</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>55000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>121282.16</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-06-27</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Utility Payment - Electricity City Utilities</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>750</v>
-      </c>
-      <c r="D8" t="n">
-        <v>120532.16</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-06-28</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>18750</v>
-      </c>
-      <c r="D9" t="n">
-        <v>139282.16</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-06-29</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Amazon Business Purchase Amazon.com</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>320.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>138961.66</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>credit</t>
+          <t>No data</t>
         </is>
       </c>
     </row>

--- a/llm_invoice_reconciliation.xlsx
+++ b/llm_invoice_reconciliation.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="matched" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_invoices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_payments" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="reimbursements" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_invoices" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_statements" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="total_valid_invoices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="matched" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_invoices" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="unmatched_payments" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="reimbursements" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_invoices" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="duplicates_statements" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -496,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,15 +508,63 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No data</t>
-        </is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250625-2D2DAEB5</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27033.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250625-A9A82DBB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250625-D669875D</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31002.55</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,14 +589,441 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>balance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No data</t>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28518.85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>153518.85</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27033.29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>180552.14</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Monthly Office Rent Brightspace Realty</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>176552.14</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>189.99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>176362.15</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Internet Bill FastNet Communications</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>176282.16</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Employee Salary - June Payroll Transfer</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>55000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>121282.16</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Utility Payment - Electricity City Utilities</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>750</v>
+      </c>
+      <c r="D8" t="n">
+        <v>120532.16</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>18750</v>
+      </c>
+      <c r="D9" t="n">
+        <v>139282.16</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amazon Business Purchase Amazon.com</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>138961.66</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>28518.85</v>
+      </c>
+      <c r="D11" t="n">
+        <v>153518.85</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>27033.29</v>
+      </c>
+      <c r="D12" t="n">
+        <v>180552.14</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Monthly Office Rent Brightspace Realty</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>176552.14</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>189.99</v>
+      </c>
+      <c r="D14" t="n">
+        <v>176362.15</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Internet Bill FastNet Communications</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>176282.16</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Employee Salary - June Payroll Transfer</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>55000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>121282.16</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Utility Payment - Electricity City Utilities</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>750</v>
+      </c>
+      <c r="D17" t="n">
+        <v>120532.16</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-06-28</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>18750</v>
+      </c>
+      <c r="D18" t="n">
+        <v>139282.16</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Amazon Business Purchase Amazon.com</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>138961.66</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>credit</t>
         </is>
       </c>
     </row>
@@ -620,4 +1096,37 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>No data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/llm_invoice_reconciliation.xlsx
+++ b/llm_invoice_reconciliation.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,27 +525,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Invoice INV-20250625-2D2DAEB5</t>
+          <t>Invoice INV-20250627-4C7CF5EC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27033.29</v>
+        <v>28518.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Invoice INV-20250625-A9A82DBB</t>
+          <t>Invoice INV-20250627-0FA3FF25</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -555,16 +555,526 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-C77E4939</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-4745FAF7</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-E7B73451</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Invoice INV-20250625-D669875D</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31002.55</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250625-2D2DAEB5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27033.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250625-A9A82DBB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-9019DD64</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-D441832A</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-3B90FCB1</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-704EF9A9</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-BE4F85EF</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-C0205EE3</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-94A383FE</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-DF97BC52</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-09BB4E28</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-72A3AFC9</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-1DB715D7</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-12623982</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-71AE4601</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-D2324C91</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-EC14A5E5</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-EC4F0273</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-2AE99735</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-06-27</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250627-BE1FB659</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-69D317E0</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-194E72D1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-285DFB06</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-EE66754A</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-5DEE8CA1</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-869E3027</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-54D8BBD4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-A6F8730C</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-D80929E6</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-106BDC9B</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-AA672C51</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>28518.85</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Invoice INV-20250630-D354D27A</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>28518.85</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,15 +1109,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>balance</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -616,21 +1131,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28518.85</v>
-      </c>
+          <t>Opening Balance</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>153518.85</v>
-      </c>
-      <c r="E2" t="inlineStr">
+        <v>125000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -639,21 +1155,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27033.29</v>
+          <t>ACH Payment - Global Mfg Corp</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>INV-20250625-A9A82DBB</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>180552.14</v>
-      </c>
-      <c r="E3" t="inlineStr">
+        <v>28518.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>153518.85</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -662,21 +1183,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monthly Office Rent Brightspace Realty</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4000</v>
+          <t>ACH Payment - Omkar Mestry</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>INV-20250625-2D2DAEB5</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>176552.14</v>
-      </c>
-      <c r="E4" t="inlineStr">
+        <v>27033.29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>180552.14</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -685,21 +1211,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-06-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>189.99</v>
+          <t>Monthly Office Rent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Brightspace Realty</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>176362.15</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>4000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>176552.14</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -708,21 +1239,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Internet Bill FastNet Communications</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>79.98999999999999</v>
+          <t>Software Subscription - Adobe Suite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Adobe Inc.</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>176282.16</v>
-      </c>
-      <c r="E6" t="inlineStr">
+        <v>189.99</v>
+      </c>
+      <c r="E6" t="n">
+        <v>176362.15</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -731,21 +1267,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Employee Salary - June Payroll Transfer</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>55000</v>
+          <t>Internet Bill</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FastNet Communications</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>121282.16</v>
-      </c>
-      <c r="E7" t="inlineStr">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>176282.16</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -754,21 +1295,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Utility Payment - Electricity City Utilities</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>750</v>
+          <t>Employee Salary - June</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Payroll Transfer</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>120532.16</v>
-      </c>
-      <c r="E8" t="inlineStr">
+        <v>55000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>121282.16</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -777,21 +1323,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-06-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>18750</v>
+          <t>Utility Payment - Electricity</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>City Utilities</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>139282.16</v>
-      </c>
-      <c r="E9" t="inlineStr">
+        <v>750</v>
+      </c>
+      <c r="E9" t="n">
+        <v>120532.16</v>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -800,21 +1351,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Amazon Business Purchase Amazon.com</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>320.5</v>
+          <t>Payment from TechDynamics LLC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Invoice INV-TD-1234</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>138961.66</v>
-      </c>
-      <c r="E10" t="inlineStr">
+        <v>18750</v>
+      </c>
+      <c r="E10" t="n">
+        <v>139282.16</v>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -823,21 +1379,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-06-21</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ACH Payment - Global Mfg Corp INV-20250620-D0E0F066</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>28518.85</v>
+          <t>2025-06-29</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Amazon Business Purchase Amazon.com</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>153518.85</v>
-      </c>
-      <c r="E11" t="inlineStr">
+        <v>320.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>138961.66</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -846,21 +1403,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-06-22</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ACH Payment - Omkar Mestry INV-20250620-996A7766</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>27033.29</v>
+          <t>Return - Amazon Business</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RET-Amazon-0629</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>180552.14</v>
-      </c>
-      <c r="E12" t="inlineStr">
+        <v>320.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>138641.16</v>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
@@ -869,159 +1431,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-06-23</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Monthly Office Rent Brightspace Realty</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>4000</v>
+          <t>Return - Adobe Suite Subscription</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RET-Adobe-0624</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>176552.14</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Software Subscription - Adobe SuiteAdobe Inc.</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>189.99</v>
       </c>
-      <c r="D14" t="n">
-        <v>176362.15</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-06-25</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Internet Bill FastNet Communications</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>79.98999999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>176282.16</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Employee Salary - June Payroll Transfer</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>55000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>121282.16</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-06-27</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Utility Payment - Electricity City Utilities</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>750</v>
-      </c>
-      <c r="D17" t="n">
-        <v>120532.16</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-06-28</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Payment from TechDynamics LLC Invoice INV-TD-1234</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>18750</v>
-      </c>
-      <c r="D18" t="n">
-        <v>139282.16</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>credit</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-06-29</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Amazon Business Purchase Amazon.com</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>320.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>138961.66</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="E13" t="n">
+        <v>138451.17</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
